--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>WOP to MP Episode Data Validations</t>
+  </si>
+  <si>
+    <t>WOP_PortalComparisionTest</t>
+  </si>
+  <si>
+    <t>WOP to Portal Episode Data Validations</t>
   </si>
 </sst>
 </file>
@@ -669,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +687,7 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -738,7 +744,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -753,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -768,7 +774,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -809,23 +815,38 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +183,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -222,6 +240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +526,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -589,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -606,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -623,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -638,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -653,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -675,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,71 +730,71 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -781,44 +802,44 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -826,30 +847,46 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="ExecutionPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="ShortForm" sheetId="1" r:id="rId1"/>
     <sheet name="LongForm" sheetId="2" r:id="rId2"/>
+    <sheet name="EditWorkOrder" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Navigating to MP Master and Trailer Data Screens</t>
   </si>
   <si>
-    <t>CampaignHierarchyValidations</t>
-  </si>
-  <si>
     <t>MasterTrailerDataValidations</t>
   </si>
   <si>
@@ -93,9 +91,6 @@
     <t>WOP Campaign Data with MP Campaign Data Comparison</t>
   </si>
   <si>
-    <t>Validating the WOP Campaign Hierarchy with MP Campaign Data</t>
-  </si>
-  <si>
     <t>WOP Master Trailer Data with MP Master Trailer Data Comparison</t>
   </si>
   <si>
@@ -151,6 +146,42 @@
   </si>
   <si>
     <t>WOP to Portal Episode Data Validations</t>
+  </si>
+  <si>
+    <t>GeneralEditWorkComparisionTest</t>
+  </si>
+  <si>
+    <t>General Edit Work Order WOP to MP Comparision</t>
+  </si>
+  <si>
+    <t>TempoEditWorkComparisionTest</t>
+  </si>
+  <si>
+    <t>Tempo Edit Work Order WOP to MP Comparision</t>
+  </si>
+  <si>
+    <t>View Edit Work Orders screen</t>
+  </si>
+  <si>
+    <t>ViewEditOrdersTest</t>
+  </si>
+  <si>
+    <t>WOPtoPortalGeneralCompareTest</t>
+  </si>
+  <si>
+    <t>WOPtoPortalTempoCompareTest</t>
+  </si>
+  <si>
+    <t>Wop to Portal General</t>
+  </si>
+  <si>
+    <t>Wop to portal Tempo</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>DryRun</t>
   </si>
 </sst>
 </file>
@@ -173,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,6 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -593,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -610,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -623,20 +661,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,22 +680,22 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -667,21 +703,6 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -696,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +751,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -740,153 +761,439 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="B10" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
+      <c r="A11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B12">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B16">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ShortForm" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -176,12 +176,6 @@
   </si>
   <si>
     <t>Wop to portal Tempo</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>DryRun</t>
   </si>
 </sst>
 </file>
@@ -563,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +607,7 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -647,8 +641,8 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -664,8 +658,8 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -717,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,159 +760,144 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
+      <c r="A10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
+      <c r="A11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
